--- a/examples/Excel2Config_Example-1.xlsx
+++ b/examples/Excel2Config_Example-1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uarslan\Desktop\e2c_jinjafunction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uarslan\Documents\GitHub\excel2config\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC98A4A4-BA55-4954-9B64-77C0C9781C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA88C24-EDD8-44DD-AA57-C22774DC8954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -227,15 +227,6 @@
     return input.replace('e','E')</t>
   </si>
   <si>
-    <t>interface ethernet {{interface}}
-  description {{replace_func(description)}}
-  no shutdown
-  mtu {{mtu}}
-  vrf member {{vrf_name}}
-  no ip redirects
-  ip address {{ip_block_1}}/{{ip_block_1_mask}}</t>
-  </si>
-  <si>
     <t xml:space="preserve">Global Jinja custom function, usage: {{replace_func(jinja_variable)}}
 !!! SECURITY ISSUE: COMMAND INJECTION !!! </t>
   </si>
@@ -252,6 +243,22 @@
     }
     {% endfor %}
 }</t>
+  </si>
+  <si>
+    <t>{#HEADER
+configure terminal
+#}
+interface ethernet {{interface}}
+  description {{replace_func(description)}}
+  no shutdown
+  mtu {{mtu}}
+  vrf member {{vrf_name}}
+  no ip redirects
+  ip address {{ip_block_1}}/{{ip_block_1_mask}}
+  exit 
+{#FOOTER
+exit
+#}</t>
   </si>
 </sst>
 </file>
@@ -879,7 +886,7 @@
         <v>61</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -968,7 +975,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,7 +996,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -1180,7 +1187,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C1" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1" s="15"/>
       <c r="E1" s="14" t="s">
@@ -1189,7 +1196,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
